--- a/_site/docs/download/jinjulee119_partdb.xlsx
+++ b/_site/docs/download/jinjulee119_partdb.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UST\2021 1학기\현장연구\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -369,9 +369,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -430,7 +429,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -450,12 +449,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1308,7 +1301,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1318,7 +1311,7 @@
     <col min="3" max="3" width="5.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.625" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.625" style="1" bestFit="1" customWidth="1"/>
@@ -1343,7 +1336,7 @@
       <c r="E1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -1378,7 +1371,7 @@
       <c r="E2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="1">
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1413,7 +1406,7 @@
       <c r="E3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="1">
         <v>100</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -1448,7 +1441,7 @@
       <c r="E4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="1">
         <v>200000</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -1483,7 +1476,7 @@
       <c r="E5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="1">
         <v>300000</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -1518,7 +1511,7 @@
       <c r="E6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="1">
         <v>400000</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -1553,7 +1546,7 @@
       <c r="E7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="1">
         <v>350000</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -1588,7 +1581,7 @@
       <c r="E8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="1">
         <v>10</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -1623,7 +1616,7 @@
       <c r="E9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="1">
         <v>30</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -1658,7 +1651,7 @@
       <c r="E10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="1">
         <v>130</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -1693,7 +1686,7 @@
       <c r="E11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="1">
         <v>300</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -1728,7 +1721,7 @@
       <c r="E12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="1">
         <v>400</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -1763,7 +1756,7 @@
       <c r="E13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="1">
         <v>380</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -1798,7 +1791,7 @@
       <c r="E14" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="1">
         <v>350000</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -1833,7 +1826,7 @@
       <c r="E15" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="1">
         <v>230000</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -1868,7 +1861,7 @@
       <c r="E16" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="1">
         <v>180000</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -1903,7 +1896,7 @@
       <c r="E17" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="1">
         <v>150000</v>
       </c>
       <c r="G17" s="1" t="s">
